--- a/Excel Cookbook/CH4_Math_Engineering.xlsx
+++ b/Excel Cookbook/CH4_Math_Engineering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coffi\BDSE36Data_Analysis\Excel Cookbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C70CCFB-619F-4F50-A52A-2AB4C78C133C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1740B0E3-F1B5-4C41-A532-57F470427149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4.1 Generating Numbers" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="4.7 Multiplication and Multiple" sheetId="7" r:id="rId7"/>
     <sheet name="4.9 Rounding" sheetId="8" r:id="rId8"/>
     <sheet name="4.10 Significant Figures" sheetId="9" r:id="rId9"/>
+    <sheet name="4.11 Powers Exponents Square " sheetId="10" r:id="rId10"/>
+    <sheet name="4.13 Factorials Permutations" sheetId="11" r:id="rId11"/>
+    <sheet name="4.14 Using Trigonometry" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -443,15 +446,15 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
         <f ca="1">RAND()</f>
-        <v>0.7892974180636696</v>
+        <v>0.83616185175592739</v>
       </c>
       <c r="C1" cm="1">
         <f t="array" aca="1" ref="C1:D5" ca="1">_xlfn.RANDARRAY(5, 2, 1, 10, TRUE)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1">
         <f ca="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" cm="1">
         <f t="array" ref="F1:F5">_xlfn.SEQUENCE(5, , 0, 0.2)</f>
@@ -461,15 +464,15 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <f ca="1">RAND()*(10-1)+1</f>
-        <v>4.5258241068702496</v>
+        <v>9.4750393685099041</v>
       </c>
       <c r="C2">
         <f ca="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <f ca="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0.2</v>
@@ -478,15 +481,15 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <f ca="1">RAND()*100</f>
-        <v>45.171582652522027</v>
+        <v>54.590354557514175</v>
       </c>
       <c r="C3">
         <f ca="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <f ca="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>0.4</v>
@@ -495,15 +498,15 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <f ca="1">RANDBETWEEN(1, 10)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <f ca="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <f ca="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0.60000000000000009</v>
@@ -512,14 +515,202 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5">
         <f ca="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <f ca="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8BB590-6898-406B-A29A-57FB46762F90}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <f>2^4</f>
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <f>POWER(2,4)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" cm="1">
+        <f t="array" ref="B2:B5">POWER(A2:A5, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" ref="C2:C5">POWER(A2:A5, A2:A5)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" ref="D2:D5">SQRT(A2:A5)</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>EXP(5)</f>
+        <v>148.4131591025766</v>
+      </c>
+      <c r="F2">
+        <f>LOG(16,2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="E3">
+        <f>LN(3)</f>
+        <v>1.0986122886681098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="E4">
+        <f>LN(EXP(5))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>256</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f>LOG10(1000)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>SERIESSUM(2, 3, -1, {5,4,3,2})</f>
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940C8AE4-745C-4EEA-A5DE-D50146926503}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <f>FACT(5)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>FACTDOUBLE(5)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>MULTINOMIAL(1, 2, 4, 4)</f>
+        <v>34650.000000000044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>PERMUT(20, 2)</f>
+        <v>380</v>
+      </c>
+      <c r="B4">
+        <f>_xlfn.PERMUTATIONA(10, 5)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>COMBIN(20, 2)</f>
+        <v>190</v>
+      </c>
+      <c r="B5">
+        <f>_xlfn.COMBINA(20, 2)</f>
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3057EFEB-5630-4339-AFCD-CA95D8B33D45}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1316,7 @@
         <f>_xlfn.CEILING.MATH(5.321, 0.1)</f>
         <v>5.4</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1">
         <f>ROUNDDOWN(5.36, 1)</f>
         <v>5.3</v>
       </c>
@@ -1151,7 +1342,7 @@
         <f>_xlfn.CEILING.MATH(-5.3)</f>
         <v>-5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <f>ROUNDDOWN(-5.6, 0)</f>
         <v>-5</v>
       </c>
@@ -1174,7 +1365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEA9254-39E6-40D0-941A-67A9F37AEFFD}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/Excel Cookbook/CH4_Math_Engineering.xlsx
+++ b/Excel Cookbook/CH4_Math_Engineering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coffi\BDSE36Data_Analysis\Excel Cookbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1740B0E3-F1B5-4C41-A532-57F470427149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CDDB58-B248-413B-A232-14B1DD8E9F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4.1 Generating Numbers" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="4.11 Powers Exponents Square " sheetId="10" r:id="rId10"/>
     <sheet name="4.13 Factorials Permutations" sheetId="11" r:id="rId11"/>
     <sheet name="4.14 Using Trigonometry" sheetId="12" r:id="rId12"/>
+    <sheet name="4.15 Working with Matrices" sheetId="13" r:id="rId13"/>
+    <sheet name="4.17 Bitwise Operations" sheetId="14" r:id="rId14"/>
+    <sheet name="4.18 Complex Numbers" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>123</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +111,98 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plates
+quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mugs
+quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mugs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plates
+total</t>
+  </si>
+  <si>
+    <t>Plates
+total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mugs
+total</t>
+  </si>
+  <si>
+    <t>Mugs
+total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pressure value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spinnner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salt feed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beacon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6+2i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-4i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,14 +242,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -446,15 +553,15 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
         <f ca="1">RAND()</f>
-        <v>0.83616185175592739</v>
+        <v>0.22504722097831797</v>
       </c>
       <c r="C1" cm="1">
         <f t="array" aca="1" ref="C1:D5" ca="1">_xlfn.RANDARRAY(5, 2, 1, 10, TRUE)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1">
         <f ca="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F1" cm="1">
         <f t="array" ref="F1:F5">_xlfn.SEQUENCE(5, , 0, 0.2)</f>
@@ -464,15 +571,15 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <f ca="1">RAND()*(10-1)+1</f>
-        <v>9.4750393685099041</v>
+        <v>5.2043194661970285</v>
       </c>
       <c r="C2">
         <f ca="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <f ca="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>0.2</v>
@@ -481,15 +588,15 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <f ca="1">RAND()*100</f>
-        <v>54.590354557514175</v>
+        <v>76.042753474536624</v>
       </c>
       <c r="C3">
         <f ca="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <f ca="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0.4</v>
@@ -498,15 +605,15 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <f ca="1">RANDBETWEEN(1, 10)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <f ca="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <f ca="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>0.60000000000000009</v>
@@ -515,11 +622,11 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5">
         <f ca="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <f ca="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>0.8</v>
@@ -698,9 +805,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3057EFEB-5630-4339-AFCD-CA95D8B33D45}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -708,9 +817,521 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+      <c r="A1">
         <f>PI()</f>
         <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>RADIANS(180)</f>
+        <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>DEGREES(PI())</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>SIN(PI()/2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>ASIN(PI()/4)</f>
+        <v>0.90333911076651274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>ATAN2(3,4)</f>
+        <v>0.92729521800161219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>SINH(PI()/2)</f>
+        <v>2.3012989023072947</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294F54F5-268C-488A-B698-CB061A575C8D}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>1.5</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2:K4">_xlfn.MUNIT(3)</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0.7</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <f>MDETERM(F2:G3)</f>
+        <v>-1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" cm="1">
+        <f t="array" ref="B7:C9">MMULT(B2:C4,F2:G3)</f>
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>19.2</v>
+      </c>
+      <c r="I7" cm="1">
+        <f t="array" ref="I7:K8">TRANSPOSE(B2:C4)</f>
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>11.6</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>19.2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>11.6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" cm="1">
+        <f t="array" ref="B17:C19">MMULT(B12:C14, MINVERSE(F12:G13))</f>
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>6.0000000000000018</v>
+      </c>
+      <c r="C19">
+        <v>3.9999999999999964</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DB644-ADA6-485C-ACAE-2B062C06777B}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="b" cm="1">
+        <f t="array" ref="B2:E6">_xlfn.BITAND(A2:A6,BIN2DEC({1,10,100,1000}))&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0933C300-5CC6-4002-AA10-8F250DB657FA}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <f>IMREAL(A1)</f>
+        <v>6</v>
+      </c>
+      <c r="C1" t="str">
+        <f>IMSUM(A1,A2)</f>
+        <v>11-2i</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <f>IMAGINARY(A1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IMPRODUCT("6+2i", "5-4i")</f>
+        <v>38-14i</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="str">
+        <f>IMCONJUGATE(A1)</f>
+        <v>6-2i</v>
       </c>
     </row>
   </sheetData>
